--- a/slides/slave_trade.xlsx
+++ b/slides/slave_trade.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">EUA</t>
   </si>
   <si>
-    <t xml:space="preserve">França</t>
+    <t xml:space="preserve">Franca</t>
   </si>
   <si>
     <t xml:space="preserve">Dinamarca/Báltico</t>
@@ -95,9 +95,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -164,12 +163,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,467 +172,470 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <v>6363</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>13363</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <v>25375</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2" t="n">
         <v>25387</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>50762</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <v>28167</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2" t="n">
         <v>31089</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>1685</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="n">
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="H4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="n">
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
         <v>61007</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <v>60056</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="2" t="n">
         <v>90715</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>1365</v>
       </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
         <v>152373</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>83496</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="2" t="n">
         <v>267519</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>1829</v>
       </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="n">
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
         <v>352844</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="2" t="n">
         <v>44313</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="2" t="n">
         <v>201609</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>33695</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>31729</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <v>824</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="2" t="n">
         <v>1827</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>1053</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>315050</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
         <v>12601</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="2" t="n">
         <v>244793</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="2" t="n">
         <v>122367</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>100526</v>
       </c>
-      <c r="F8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="n">
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>7125</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="2" t="n">
         <v>653</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>488065</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="2" t="n">
         <v>5860</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="2" t="n">
         <v>297272</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="2" t="n">
         <v>272200</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <v>85847</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="2" t="n">
         <v>3327</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="2" t="n">
         <v>29484</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="2" t="n">
         <v>25685</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>719675</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="n">
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>474447</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>410597</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <v>73816</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="2" t="n">
         <v>3277</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="2" t="n">
         <v>120939</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="2" t="n">
         <v>5833</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="2" t="n">
         <v>1088909</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="n">
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>536696</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="2" t="n">
         <v>554042</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="2" t="n">
         <v>83095</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="2" t="n">
         <v>34004</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="2" t="n">
         <v>259095</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="2" t="n">
         <v>4793</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="2" t="n">
         <v>1471725</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="2" t="n">
         <v>4239</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="2" t="n">
         <v>528693</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="2" t="n">
         <v>832047</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <v>132330</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="2" t="n">
         <v>84580</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="2" t="n">
         <v>325918</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="2" t="n">
         <v>17508</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>1925315</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="2" t="n">
         <v>6415</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="2" t="n">
         <v>673167</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="2" t="n">
         <v>748612</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>40773</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="2" t="n">
         <v>67443</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="2" t="n">
         <v>433061</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="2" t="n">
         <v>39199</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>2008670</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="2" t="n">
         <v>168087</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="2" t="n">
         <v>1160601</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="2" t="n">
         <v>283959</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>2669</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="2" t="n">
         <v>109545</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="2" t="n">
         <v>135815</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="2" t="n">
         <v>16316</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>1876992</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="2" t="n">
         <v>400728</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="2" t="n">
         <v>1299969</v>
       </c>
-      <c r="D15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="n">
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="2" t="n">
         <v>1850</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="2" t="n">
         <v>68074</v>
       </c>
-      <c r="H15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="n">
+      <c r="H15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="n">
         <v>1770978</v>
       </c>
     </row>
